--- a/10_New_Factors/关于十个因子的简单说明.xlsx
+++ b/10_New_Factors/关于十个因子的简单说明.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D4F296E8-3DE6-4427-BEEA-E9786AF7267A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0BCF5CF2-CD69-4B7B-B54E-7F1DF10CC250}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="98">
   <si>
     <t>Formula</t>
   </si>
@@ -34,243 +34,312 @@
     <t>DEVOL20</t>
   </si>
   <si>
+    <t>ESR30</t>
+  </si>
+  <si>
+    <t>Ewma(StdDev(Return(close,{},{}),{}),{})</t>
+  </si>
+  <si>
+    <t>HL60</t>
+  </si>
+  <si>
+    <t>Ts_Mean(high/low,{})</t>
+  </si>
+  <si>
+    <t>HLCEMA_X</t>
+  </si>
+  <si>
+    <t>Ta('EMA',0,(high-low)/close,(high-low)/close,(high-low)/close,(high-low)/close,(high-low)/close,{})</t>
+  </si>
+  <si>
+    <t>ILLIQ_X</t>
+  </si>
+  <si>
+    <t>M_B</t>
+  </si>
+  <si>
+    <t>capital_stk*close/tot_assets</t>
+  </si>
+  <si>
+    <t>PV_SMA</t>
+  </si>
+  <si>
+    <t>SMA(1/3*(close+high+low)*volume,{},{})</t>
+  </si>
+  <si>
+    <t>Std_Skewness120</t>
+  </si>
+  <si>
+    <t>Ts_Skewness(Standardize(close),120)</t>
+  </si>
+  <si>
+    <t>High_IC_Industry</t>
+  </si>
+  <si>
+    <t>IC</t>
+  </si>
+  <si>
+    <t>classify</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>parameter</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>{'传媒': -0.06, '化工': -0.06, '商业贸易': -0.05, '国防军工': -0.13, '建筑材料': -0.08, '建筑装饰': -0.07, '房地产': -0.07, '有色金属': -0.05, '汽车': -0.05, '电子': -0.06, '电气设备': -0.05, '纺织服装': -0.09, '计算机': -0.05, '轻工制造': -0.1, '钢铁': -0.09, '银行': 0.07}</t>
+  </si>
+  <si>
+    <t>sw1</t>
+  </si>
+  <si>
+    <t>['volume']</t>
+  </si>
+  <si>
+    <t>用SMA计算的衍生乖离度</t>
+  </si>
+  <si>
+    <t>ZZ800</t>
+  </si>
+  <si>
+    <t>[13, 2, 13, 2]</t>
+  </si>
+  <si>
+    <t>动量类</t>
+  </si>
+  <si>
+    <t>{'交通运输': -0.12, '休闲服务': -0.13, '传媒': -0.09, '公用事业': -0.1, '农林牧渔': -0.15, '化工': -0.08, '医药生物': -0.12, '商业贸易': -0.09, '家用电器': -0.13, '建筑材料': -0.11, '建筑装饰': -0.12, '房地产': -0.12, '有色金属': -0.09, '机械设备': -0.11, '汽车': -0.12, '电子': -0.08, '电气设备': -0.05, '纺织服装': -0.07, '计算机': -0.1, '轻工制造': -0.09, '采掘': -0.12, '钢铁': -0.15, '非银金融': -0.11, '食品饮料': -0.15}</t>
+  </si>
+  <si>
+    <t>换手率的20日指数衰减</t>
+  </si>
+  <si>
+    <t>[0.8, 20]</t>
+  </si>
+  <si>
+    <t>情绪类</t>
+  </si>
+  <si>
+    <t>{'交通运输': -0.09, '公用事业': -0.05, '农林牧渔': -0.12, '医药生物': -0.07, '商业贸易': -0.09, '国防军工': 0.05, '家用电器': -0.12, '建筑材料': -0.15, '房地产': -0.08, '有色金属': -0.07, '机械设备': -0.1, '汽车': -0.08, '电气设备': -0.06, '综合': 0.07, '轻工制造': -0.06, '采掘': -0.08, '钢铁': -0.07, '银行': -0.06, '非银金融': -0.07, '食品饮料': -0.07}</t>
+  </si>
+  <si>
+    <t>以30天为半衰期的，5日以2为底的对数回报率的标准差的指数移动平均</t>
+  </si>
+  <si>
+    <t>[5, 2, 60, 30]</t>
+  </si>
+  <si>
+    <t>混合类</t>
+  </si>
+  <si>
+    <t>{'交通运输': -0.14, '休闲服务': -0.11, '公用事业': -0.11, '农林牧渔': -0.11, '医药生物': -0.06, '商业贸易': -0.1, '家用电器': -0.07, '建筑材料': -0.1, '建筑装饰': -0.08, '房地产': -0.11, '有色金属': -0.08, '机械设备': -0.13, '汽车': -0.14, '电子': -0.06, '纺织服装': -0.1, '计算机': -0.09, '轻工制造': -0.08, '通信': -0.06, '采掘': -0.12, '钢铁': -0.12, '非银金融': -0.09, '食品饮料': -0.1}</t>
+  </si>
+  <si>
+    <t>60日最高值最低值之比的平均值</t>
+  </si>
+  <si>
+    <t>[60]</t>
+  </si>
+  <si>
+    <t>{'交通运输': -0.12, '休闲服务': -0.05, '公用事业': -0.11, '农林牧渔': -0.07, '化工': -0.07, '商业贸易': -0.08, '家用电器': -0.05, '建筑材料': -0.11, '建筑装饰': -0.07, '房地产': -0.12, '有色金属': -0.05, '机械设备': -0.11, '汽车': -0.07, '电气设备': -0.05, '纺织服装': -0.06, '轻工制造': -0.1, '通信': -0.06, '采掘': -0.1, '钢铁': -0.15, '非银金融': -0.08, '食品饮料': -0.06}</t>
+  </si>
+  <si>
+    <t>相对价格极差的5日EMA</t>
+  </si>
+  <si>
+    <t>[5]</t>
+  </si>
+  <si>
+    <t>波动类</t>
+  </si>
+  <si>
+    <t>{'交通运输': 0.08, '传媒': 0.1, '农林牧渔': 0.14, '化工': 0.05, '商业贸易': 0.07, '国防军工': 0.09, '建筑材料': 0.12, '建筑装饰': 0.06, '房地产': 0.07, '有色金属': 0.09, '机械设备': 0.1, '电子': 0.05, '电气设备': 0.06, '纺织服装': 0.09, '计算机': 0.07, '轻工制造': 0.09, '采掘': 0.07, '钢铁': 0.09, '银行': -0.05, '食品饮料': -0.09}</t>
+  </si>
+  <si>
+    <t>20日日平均回报率绝对值的均值除以成交量与典型价格之积</t>
+  </si>
+  <si>
+    <t>[1, 20]</t>
+  </si>
+  <si>
+    <t>财务质量类-流动性</t>
+  </si>
+  <si>
+    <t>{'交通运输': -0.06, '传媒': -0.07, '化工': -0.08, '商业贸易': -0.1, '国防军工': -0.05, '建筑装饰': -0.08, '房地产': -0.08, '有色金属': -0.06, '机械设备': -0.07, '轻工制造': -0.1, '通信': -0.11, '采掘': -0.09, '银行': -0.08, '非银金融': -0.12}</t>
+  </si>
+  <si>
+    <t>账面市值比的倒数</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>价值类</t>
+  </si>
+  <si>
+    <t>{'交通运输': -0.14, '传媒': -0.1, '公用事业': -0.06, '农林牧渔': -0.2, '化工': -0.08, '医药生物': -0.06, '商业贸易': -0.1, '国防军工': -0.06, '建筑材料': -0.11, '建筑装饰': -0.07, '房地产': -0.1, '有色金属': -0.1, '机械设备': -0.14, '汽车': -0.05, '电子': -0.05, '电气设备': -0.08, '纺织服装': -0.05, '计算机': -0.09, '轻工制造': -0.1, '采掘': -0.12, '钢铁': -0.11, '银行': 0.05, '非银金融': -0.06, '食品饮料': 0.08}</t>
+  </si>
+  <si>
+    <t>典型价格乘成交量的移动平均</t>
+  </si>
+  <si>
+    <t>[3, 2]</t>
+  </si>
+  <si>
+    <t>{'交通运输': -0.05, '公用事业': -0.05, '农林牧渔': -0.08, '国防军工': -0.07, '家用电器': -0.07, '建筑材料': -0.1, '建筑装饰': -0.05, '机械设备': -0.09, '汽车': -0.06, '综合': -0.11, '轻工制造': -0.06, '采掘': -0.08, '银行': 0.06, '非银金融': -0.07, '食品饮料': -0.06}</t>
+  </si>
+  <si>
+    <t>标准化收盘价的120日偏度</t>
+  </si>
+  <si>
+    <t>风险收益类</t>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个因子是从乖离率中衍生出来的构建思想源自雪球中关于乖离率的ZZ500有效性报告，通过将MA调整成SMA，得到不错的IC值，大于原有BIAS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵感来自天风证券的研报，其中有一个与换手率相关的因子表现非常好，通过衰减函数嵌套，得到更加稳定的因子。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回报率标准差的有效性在度量风险的时候相当有价值，低回报标准差可能意味着较低的风险，通过将因子进行嵌套，得到更加稳定，IC值更高的因子。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵感来自天风证券的因子研报，high/low在过去几年内有效性都很高，但风险也比较高，因此取两个月平均，得到了一个较高的IC和相对低的IR。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从大鱼的因子中衍生出来，单纯地看最高最低值的差，不论股价是一个很耍流氓的行为，因此我将极差标准化了一下，得到IC还不错的因子。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ts_Mean(Abs(Return(close,{})),{})/(volume*(high+low+close)/3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天风证券研报中衍生出来关于流动性的因子，通过多次调试猜得到稍微理想一些的结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三因子模型中的账面市值比因子，但对比之后发现其倒数的IC更高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMA中衍生，将close替换成了典型价格，IC值有提高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原因暂时不会解释，想写一个风险因子，测试了几十次得到相对较好的一个因子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务质量-流动性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经营活动产生的现金流量净额与净利润的商的平方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(net_cash_flows_oper_act)/net_profit)^2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CFinNP_2</t>
+  </si>
+  <si>
+    <t>经营活动产生的现金流量与净利润的比高，说明流动性越好，但也可能说明利润率不高。这个因子起初表现平平，只有刚刚达标的水准，但加了平方之后IC飙到了0.08，但IR很低，才0.124，因此没有算在好因子的队伍中。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Non_Name_Factor1</t>
+  </si>
+  <si>
+    <t>Ts_Sum(volume,5)/capital_stk</t>
+  </si>
+  <si>
+    <t>{'交通运输': -0.11, '传媒': -0.07, '公用事业': -0.07, '农林牧渔': -0.15, '化工': -0.05, '医药生物': -0.12, '商业贸易': -0.08, '家用电器': -0.1, '建筑材料': -0.11, '建筑装饰': -0.08, '房地产': -0.13, '有色金属': -0.06, '机械设备': -0.11, '汽车': -0.11, '电子': -0.06, '电气设备': -0.07, '纺织服装': -0.1, '计算机': -0.12, '轻工制造': -0.08, '采掘': -0.08, '钢铁': -0.07, '非银金融': -0.08, '食品饮料': -0.09}</t>
+  </si>
+  <si>
+    <t>5日成交量之和除以股本总数</t>
+  </si>
+  <si>
+    <t>SDR60</t>
+  </si>
+  <si>
+    <t>StdDev((close/Delay(close,1))-1,{})</t>
+  </si>
+  <si>
+    <t>{'交通运输': -0.12, '传媒': -0.05, '公用事业': -0.08, '农林牧渔': -0.11, '医药生物': -0.07, '商业贸易': -0.09, '家用电器': -0.12, '建筑材料': -0.12, '房地产': -0.08, '有色金属': -0.07, '机械设备': -0.13, '汽车': -0.12, '电气设备': -0.08, '综合': 0.09, '轻工制造': -0.07, '采掘': -0.12, '钢铁': -0.08, '银行': -0.05, '非银金融': -0.07, '食品饮料': -0.08}</t>
+  </si>
+  <si>
+    <t>60天收益率的标准差</t>
+  </si>
+  <si>
+    <t>波动类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵感来自雪球的因子报告，将成交量的5日平均与股本进行取商，得到一个IC接近0.07的因子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵感来自与雪球的因子报告，雪球中对HS300中有类似因子，我将原因子中的方差进行修改，经过调试偏度峰度等各种指标，发现在zz800中标准差为最佳指标。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>['close']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Decay_exp(turnover_ratio,{},{})</t>
-  </si>
-  <si>
-    <t>ESR30</t>
-  </si>
-  <si>
-    <t>Ewma(StdDev(Return(close,{},{}),{}),{})</t>
-  </si>
-  <si>
-    <t>HL60</t>
-  </si>
-  <si>
-    <t>Ts_Mean(high/low,{})</t>
-  </si>
-  <si>
-    <t>HLCEMA_X</t>
-  </si>
-  <si>
-    <t>Ta('EMA',0,(high-low)/close,(high-low)/close,(high-low)/close,(high-low)/close,(high-low)/close,{})</t>
-  </si>
-  <si>
-    <t>ILLIQ_X</t>
-  </si>
-  <si>
-    <t>M_B</t>
-  </si>
-  <si>
-    <t>capital_stk*close/tot_assets</t>
-  </si>
-  <si>
-    <t>PV_SMA</t>
-  </si>
-  <si>
-    <t>SMA(1/3*(close+high+low)*volume,{},{})</t>
-  </si>
-  <si>
-    <t>Std_Skewness120</t>
-  </si>
-  <si>
-    <t>Ts_Skewness(Standardize(close),120)</t>
-  </si>
-  <si>
-    <t>High_IC_Industry</t>
-  </si>
-  <si>
-    <t>IC</t>
-  </si>
-  <si>
-    <t>classify</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>parameter</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>{'传媒': -0.06, '化工': -0.06, '商业贸易': -0.05, '国防军工': -0.13, '建筑材料': -0.08, '建筑装饰': -0.07, '房地产': -0.07, '有色金属': -0.05, '汽车': -0.05, '电子': -0.06, '电气设备': -0.05, '纺织服装': -0.09, '计算机': -0.05, '轻工制造': -0.1, '钢铁': -0.09, '银行': 0.07}</t>
-  </si>
-  <si>
-    <t>sw1</t>
-  </si>
-  <si>
-    <t>['volume']</t>
-  </si>
-  <si>
-    <t>用SMA计算的衍生乖离度</t>
-  </si>
-  <si>
-    <t>ZZ800</t>
-  </si>
-  <si>
-    <t>[13, 2, 13, 2]</t>
-  </si>
-  <si>
-    <t>动量类</t>
-  </si>
-  <si>
-    <t>{'交通运输': -0.12, '休闲服务': -0.13, '传媒': -0.09, '公用事业': -0.1, '农林牧渔': -0.15, '化工': -0.08, '医药生物': -0.12, '商业贸易': -0.09, '家用电器': -0.13, '建筑材料': -0.11, '建筑装饰': -0.12, '房地产': -0.12, '有色金属': -0.09, '机械设备': -0.11, '汽车': -0.12, '电子': -0.08, '电气设备': -0.05, '纺织服装': -0.07, '计算机': -0.1, '轻工制造': -0.09, '采掘': -0.12, '钢铁': -0.15, '非银金融': -0.11, '食品饮料': -0.15}</t>
-  </si>
-  <si>
-    <t>换手率的20日指数衰减</t>
-  </si>
-  <si>
-    <t>[0.8, 20]</t>
-  </si>
-  <si>
-    <t>情绪类</t>
-  </si>
-  <si>
-    <t>{'交通运输': -0.09, '公用事业': -0.05, '农林牧渔': -0.12, '医药生物': -0.07, '商业贸易': -0.09, '国防军工': 0.05, '家用电器': -0.12, '建筑材料': -0.15, '房地产': -0.08, '有色金属': -0.07, '机械设备': -0.1, '汽车': -0.08, '电气设备': -0.06, '综合': 0.07, '轻工制造': -0.06, '采掘': -0.08, '钢铁': -0.07, '银行': -0.06, '非银金融': -0.07, '食品饮料': -0.07}</t>
-  </si>
-  <si>
-    <t>以30天为半衰期的，5日以2为底的对数回报率的标准差的指数移动平均</t>
-  </si>
-  <si>
-    <t>[5, 2, 60, 30]</t>
-  </si>
-  <si>
-    <t>混合类</t>
-  </si>
-  <si>
-    <t>{'交通运输': -0.14, '休闲服务': -0.11, '公用事业': -0.11, '农林牧渔': -0.11, '医药生物': -0.06, '商业贸易': -0.1, '家用电器': -0.07, '建筑材料': -0.1, '建筑装饰': -0.08, '房地产': -0.11, '有色金属': -0.08, '机械设备': -0.13, '汽车': -0.14, '电子': -0.06, '纺织服装': -0.1, '计算机': -0.09, '轻工制造': -0.08, '通信': -0.06, '采掘': -0.12, '钢铁': -0.12, '非银金融': -0.09, '食品饮料': -0.1}</t>
-  </si>
-  <si>
-    <t>60日最高值最低值之比的平均值</t>
-  </si>
-  <si>
-    <t>[60]</t>
-  </si>
-  <si>
-    <t>{'交通运输': -0.12, '休闲服务': -0.05, '公用事业': -0.11, '农林牧渔': -0.07, '化工': -0.07, '商业贸易': -0.08, '家用电器': -0.05, '建筑材料': -0.11, '建筑装饰': -0.07, '房地产': -0.12, '有色金属': -0.05, '机械设备': -0.11, '汽车': -0.07, '电气设备': -0.05, '纺织服装': -0.06, '轻工制造': -0.1, '通信': -0.06, '采掘': -0.1, '钢铁': -0.15, '非银金融': -0.08, '食品饮料': -0.06}</t>
-  </si>
-  <si>
-    <t>相对价格极差的5日EMA</t>
-  </si>
-  <si>
-    <t>[5]</t>
-  </si>
-  <si>
-    <t>波动类</t>
-  </si>
-  <si>
-    <t>{'交通运输': 0.08, '传媒': 0.1, '农林牧渔': 0.14, '化工': 0.05, '商业贸易': 0.07, '国防军工': 0.09, '建筑材料': 0.12, '建筑装饰': 0.06, '房地产': 0.07, '有色金属': 0.09, '机械设备': 0.1, '电子': 0.05, '电气设备': 0.06, '纺织服装': 0.09, '计算机': 0.07, '轻工制造': 0.09, '采掘': 0.07, '钢铁': 0.09, '银行': -0.05, '食品饮料': -0.09}</t>
-  </si>
-  <si>
-    <t>20日日平均回报率绝对值的均值除以成交量与典型价格之积</t>
-  </si>
-  <si>
-    <t>[1, 20]</t>
-  </si>
-  <si>
-    <t>财务质量类-流动性</t>
-  </si>
-  <si>
-    <t>{'交通运输': -0.06, '传媒': -0.07, '化工': -0.08, '商业贸易': -0.1, '国防军工': -0.05, '建筑装饰': -0.08, '房地产': -0.08, '有色金属': -0.06, '机械设备': -0.07, '轻工制造': -0.1, '通信': -0.11, '采掘': -0.09, '银行': -0.08, '非银金融': -0.12}</t>
-  </si>
-  <si>
-    <t>账面市值比的倒数</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>价值类</t>
-  </si>
-  <si>
-    <t>{'交通运输': -0.14, '传媒': -0.1, '公用事业': -0.06, '农林牧渔': -0.2, '化工': -0.08, '医药生物': -0.06, '商业贸易': -0.1, '国防军工': -0.06, '建筑材料': -0.11, '建筑装饰': -0.07, '房地产': -0.1, '有色金属': -0.1, '机械设备': -0.14, '汽车': -0.05, '电子': -0.05, '电气设备': -0.08, '纺织服装': -0.05, '计算机': -0.09, '轻工制造': -0.1, '采掘': -0.12, '钢铁': -0.11, '银行': 0.05, '非银金融': -0.06, '食品饮料': 0.08}</t>
-  </si>
-  <si>
-    <t>典型价格乘成交量的移动平均</t>
-  </si>
-  <si>
-    <t>[3, 2]</t>
-  </si>
-  <si>
-    <t>{'交通运输': -0.05, '公用事业': -0.05, '农林牧渔': -0.08, '国防军工': -0.07, '家用电器': -0.07, '建筑材料': -0.1, '建筑装饰': -0.05, '机械设备': -0.09, '汽车': -0.06, '综合': -0.11, '轻工制造': -0.06, '采掘': -0.08, '银行': 0.06, '非银金融': -0.07, '食品饮料': -0.06}</t>
-  </si>
-  <si>
-    <t>标准化收盘价的120日偏度</t>
-  </si>
-  <si>
-    <t>风险收益类</t>
-  </si>
-  <si>
-    <t>说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这个因子是从乖离率中衍生出来的构建思想源自雪球中关于乖离率的ZZ500有效性报告，通过将MA调整成SMA，得到不错的IC值，大于原有BIAS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>灵感来自天风证券的研报，其中有一个与换手率相关的因子表现非常好，通过衰减函数嵌套，得到更加稳定的因子。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回报率标准差的有效性在度量风险的时候相当有价值，低回报标准差可能意味着较低的风险，通过将因子进行嵌套，得到更加稳定，IC值更高的因子。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>灵感来自天风证券的因子研报，high/low在过去几年内有效性都很高，但风险也比较高，因此取两个月平均，得到了一个较高的IC和相对低的IR。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>从大鱼的因子中衍生出来，单纯地看最高最低值的差，不论股价是一个很耍流氓的行为，因此我将极差标准化了一下，得到IC还不错的因子。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ts_Mean(Abs(Return(close,{})),{})/(volume*(high+low+close)/3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天风证券研报中衍生出来关于流动性的因子，通过多次调试猜得到稍微理想一些的结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三因子模型中的账面市值比因子，但对比之后发现其倒数的IC更高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SMA中衍生，将close替换成了典型价格，IC值有提高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原因暂时不会解释，想写一个风险因子，测试了几十次得到相对较好的一个因子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>财务质量-流动性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经营活动产生的现金流量净额与净利润的商的平方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(net_cash_flows_oper_act)/net_profit)^2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CFinNP_2</t>
-  </si>
-  <si>
-    <t>经营活动产生的现金流量与净利润的比高，说明流动性越好，但也可能说明利润率不高。这个因子起初表现平平，只有刚刚达标的水准，但加了平方之后IC飙到了0.08，但IR很低，才0.124，因此没有算在好因子的队伍中。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>['turnover_ratio']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>['high','low']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>['high','low','volume']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>['volume',close','high','low']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>['capital_stk','close','tot_assets']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>['volume'，‘close','high','low']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>['net_cash_flows_oper_act','net_profit']</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -646,10 +715,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -663,34 +732,34 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="L1" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -701,34 +770,34 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2">
         <v>-0.05</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" t="s">
         <v>29</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>30</v>
-      </c>
-      <c r="H2" t="s">
-        <v>31</v>
       </c>
       <c r="I2" t="s">
         <v>1</v>
       </c>
       <c r="J2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" t="s">
         <v>32</v>
       </c>
-      <c r="K2" t="s">
-        <v>33</v>
-      </c>
       <c r="L2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -736,323 +805,402 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3">
         <v>-0.08</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I3" t="s">
         <v>3</v>
       </c>
       <c r="J3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" t="s">
         <v>36</v>
       </c>
-      <c r="K3" t="s">
-        <v>37</v>
-      </c>
       <c r="L3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4">
         <v>-0.06</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="G4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" t="s">
         <v>39</v>
       </c>
-      <c r="H4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>40</v>
       </c>
-      <c r="K4" t="s">
-        <v>41</v>
-      </c>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D5">
         <v>-0.08</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="G5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" t="s">
         <v>43</v>
       </c>
-      <c r="H5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" t="s">
-        <v>44</v>
-      </c>
       <c r="K5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D6">
         <v>-0.06</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" t="s">
         <v>46</v>
       </c>
-      <c r="H6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>47</v>
       </c>
-      <c r="K6" t="s">
-        <v>48</v>
-      </c>
       <c r="L6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D7">
         <v>0.04</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="G7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" t="s">
         <v>50</v>
       </c>
-      <c r="H7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>51</v>
       </c>
-      <c r="K7" t="s">
-        <v>52</v>
-      </c>
       <c r="L7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8">
         <v>-0.04</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="G8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" t="s">
         <v>54</v>
       </c>
-      <c r="H8" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>55</v>
       </c>
-      <c r="K8" t="s">
-        <v>56</v>
-      </c>
       <c r="L8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D9">
         <v>-0.06</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="G9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" t="s">
         <v>58</v>
       </c>
-      <c r="H9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" t="s">
-        <v>59</v>
-      </c>
       <c r="K9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
         <v>16</v>
       </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D10">
         <v>-0.04</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="G10" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" t="s">
         <v>61</v>
       </c>
-      <c r="H10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I10" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" t="s">
-        <v>55</v>
-      </c>
-      <c r="K10" t="s">
-        <v>62</v>
-      </c>
       <c r="L10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" t="s">
+        <v>81</v>
+      </c>
+      <c r="H11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" t="s">
+        <v>78</v>
+      </c>
+      <c r="J11" t="s">
+        <v>46</v>
+      </c>
+      <c r="K11" t="s">
+        <v>36</v>
+      </c>
+      <c r="L11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" t="s">
+        <v>89</v>
+      </c>
+      <c r="G12" t="s">
+        <v>85</v>
+      </c>
+      <c r="H12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" t="s">
+        <v>82</v>
+      </c>
+      <c r="J12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K12" t="s">
+        <v>86</v>
+      </c>
+      <c r="L12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13">
+        <v>-0.08</v>
+      </c>
+      <c r="F13" t="s">
+        <v>97</v>
+      </c>
+      <c r="G13" t="s">
+        <v>74</v>
+      </c>
+      <c r="K13" t="s">
+        <v>73</v>
+      </c>
+      <c r="L13" t="s">
         <v>77</v>
-      </c>
-      <c r="B11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D11">
-        <v>-0.08</v>
-      </c>
-      <c r="G11" t="s">
-        <v>75</v>
-      </c>
-      <c r="K11" t="s">
-        <v>74</v>
-      </c>
-      <c r="L11" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>
